--- a/PX4/PX4FMUv2.3/DOC/PX4FMUv2.3.xlsx
+++ b/PX4/PX4FMUv2.3/DOC/PX4FMUv2.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16230" windowHeight="9465"/>
+    <workbookView windowWidth="14235" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="PX4FMUv2.3" sheetId="1" r:id="rId1"/>
@@ -558,43 +558,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,38 +573,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,7 +604,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +647,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -700,8 +661,47 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,24 +716,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -741,174 +903,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,24 +933,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,35 +959,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,6 +989,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1042,10 +1036,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,165 +1048,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
@@ -1539,471 +1524,474 @@
   <sheetPr/>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="12.5083333333333" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="6" width="12.5083333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="12.5083333333333" customWidth="1"/>
+    <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
+    <col min="6" max="6" width="12.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
-      <c r="A6" s="9" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
-      <c r="A8" s="9" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
-      <c r="A9" s="9" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
-      <c r="A15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8" t="s">
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8" t="s">
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="8" t="s">
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="8" t="s">
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="4">
@@ -2011,39 +1999,39 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8" t="s">
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F25" s="4">
@@ -2051,119 +2039,119 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F27" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8" t="s">
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:6">
+      <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="A30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="8" t="s">
+    <row r="31" s="1" customFormat="1" spans="1:6">
+      <c r="A31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F31" s="4">
@@ -2171,419 +2159,419 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="A32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="8" t="s">
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F35" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8" t="s">
+    <row r="36" s="1" customFormat="1" spans="1:6">
+      <c r="A36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="8" t="s">
+    <row r="37" s="1" customFormat="1" spans="1:6">
+      <c r="A37" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F37" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="8" t="s">
+    <row r="38" s="1" customFormat="1" spans="1:6">
+      <c r="A38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="8" t="s">
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8" t="s">
+    <row r="40" s="1" customFormat="1" spans="1:6">
+      <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="8" t="s">
+    <row r="41" s="1" customFormat="1" spans="1:6">
+      <c r="A41" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F41" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8" t="s">
+    <row r="42" s="1" customFormat="1" spans="1:6">
+      <c r="A42" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F42" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="8" t="s">
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F43" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="8" t="s">
+    <row r="44" s="1" customFormat="1" spans="1:6">
+      <c r="A44" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F44" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8" t="s">
+    <row r="45" s="1" customFormat="1" spans="1:6">
+      <c r="A45" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="8" t="s">
+    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="A46" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="8" t="s">
+    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="A47" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="8" t="s">
+      <c r="B47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="8" t="s">
+    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="A48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="8" t="s">
+    <row r="49" s="1" customFormat="1" spans="1:6">
+      <c r="A49" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F49" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="8" t="s">
+    <row r="50" s="1" customFormat="1" spans="1:6">
+      <c r="A50" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="8" t="s">
+    <row r="51" s="1" customFormat="1" spans="1:6">
+      <c r="A51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="8" t="s">
+    <row r="52" s="1" customFormat="1" spans="1:6">
+      <c r="A52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F52" s="4">
@@ -2591,382 +2579,382 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="A53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="A60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="B62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="A63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="A64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="A65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="B66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="B67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="B68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="3">
         <v>2</v>
       </c>
     </row>

--- a/PX4/PX4FMUv2.3/DOC/PX4FMUv2.3.xlsx
+++ b/PX4/PX4FMUv2.3/DOC/PX4FMUv2.3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0. I_Want_To_Do\PCB_design\PX4\PX4FMUv2.3\DOC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E3931A-66B4-4FD9-A3B8-A54E75FC1A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="435" windowWidth="11160" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16920" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="PX4FMUv2.3" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="172">
   <si>
     <t>Comment</t>
   </si>
@@ -409,6 +403,9 @@
     <t>SOT23-8</t>
   </si>
   <si>
+    <t>L3GD20(0.305mm,0.66mm)</t>
+  </si>
+  <si>
     <t>U501</t>
   </si>
   <si>
@@ -533,17 +530,19 @@
   </si>
   <si>
     <t>OSCILLATOR-3.2X2.5</t>
-  </si>
-  <si>
-    <t>L3GD20(0.305mm,0.66mm)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,16 +554,154 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,12 +716,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -607,46 +936,341 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -904,19 +1528,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -926,1429 +1550,1429 @@
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6" t="s">
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="6" t="s">
+    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:6">
+      <c r="A29" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="A30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+    <row r="31" s="1" customFormat="1" spans="1:6">
+      <c r="A31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+    <row r="36" s="1" customFormat="1" spans="1:6">
+      <c r="A36" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+    <row r="37" s="1" customFormat="1" spans="1:6">
+      <c r="A37" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+    <row r="38" s="1" customFormat="1" spans="1:6">
+      <c r="A38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:6">
+      <c r="A40" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
+    <row r="41" s="1" customFormat="1" spans="1:6">
+      <c r="A41" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
+    <row r="42" s="1" customFormat="1" spans="1:6">
+      <c r="A42" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
+    <row r="44" s="1" customFormat="1" spans="1:6">
+      <c r="A44" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6" t="s">
+    <row r="45" s="1" customFormat="1" spans="1:6">
+      <c r="A45" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="A46" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="A47" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="A48" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:6">
+      <c r="A49" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+    <row r="50" s="1" customFormat="1" spans="1:6">
+      <c r="A50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:6">
+      <c r="A51" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:6">
+      <c r="A52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="5" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:6">
+      <c r="A54" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="B54" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="6" t="s">
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:6">
+      <c r="A55" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:6">
+      <c r="A56" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:6">
+      <c r="A57" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:6">
+      <c r="A58" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:6">
+      <c r="A59" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:6">
+      <c r="A60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:6">
+      <c r="A61" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:6">
+      <c r="A62" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:6">
+      <c r="A63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:6">
+      <c r="A64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:6">
+      <c r="A65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:6">
+      <c r="A66" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F66" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:6">
+      <c r="A67" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:6">
+      <c r="A68" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:6">
+      <c r="A69" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:6">
+      <c r="A70" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:6">
+      <c r="A71" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F65" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F66" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F69" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="E71" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F71" s="3">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/PX4/PX4FMUv2.3/DOC/PX4FMUv2.3.xlsx
+++ b/PX4/PX4FMUv2.3/DOC/PX4FMUv2.3.xlsx
@@ -538,9 +538,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -558,6 +558,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -565,15 +580,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,30 +610,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -632,9 +631,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,31 +647,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,8 +670,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,8 +692,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,7 +722,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,37 +782,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,139 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,6 +931,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -948,6 +951,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,35 +985,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,17 +1028,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1042,149 +1036,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1194,9 +1188,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1205,9 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1536,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1551,39 +1539,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3">
@@ -1591,19 +1579,19 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3">
@@ -1611,259 +1599,259 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="3">
@@ -1871,159 +1859,159 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="A21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="3">
@@ -2031,159 +2019,159 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:6">
-      <c r="A27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:6">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="3">
@@ -2191,19 +2179,19 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F33" s="3">
@@ -2211,399 +2199,399 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:6">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:6">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:6">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:6">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:6">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:6">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="8" t="s">
+      <c r="B47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:6">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:6">
-      <c r="A52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="A52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="A53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>125</v>
       </c>
       <c r="F53" s="3">
@@ -2611,339 +2599,339 @@
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:6">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:6">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="B56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="B57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:6">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="9" t="s">
+      <c r="B58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:6">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:6">
-      <c r="A60" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="A60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:6">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="9" t="s">
+      <c r="B61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:6">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="9" t="s">
+      <c r="B62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:6">
-      <c r="A63" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="A63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:6">
-      <c r="A64" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="A64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:6">
-      <c r="A65" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="A65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:6">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="B66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:6">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="9" t="s">
+      <c r="B67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:6">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="B68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:6">
-      <c r="A69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:6">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>168</v>
       </c>
       <c r="F70" s="4">
@@ -2951,22 +2939,22 @@
       </c>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:6">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="9" t="s">
+      <c r="B71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="4">
         <v>2</v>
       </c>
     </row>
